--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2009413.094768904</v>
+        <v>2008766.122227721</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12279284.88778174</v>
+        <v>12279284.88778175</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.965168186</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1376,64 +1376,64 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.56509432741741</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="G11" t="n">
+      <c r="W11" t="n">
         <v>68.39702598806991</v>
       </c>
-      <c r="H11" t="n">
-        <v>68.39702598806991</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>60.24410049029196</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>57.67900616287452</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6.191472723087853</v>
+        <v>6.191472723087824</v>
       </c>
       <c r="V12" t="n">
-        <v>13.45870707964394</v>
+        <v>13.45870707964391</v>
       </c>
       <c r="W12" t="n">
-        <v>31.53932278998886</v>
+        <v>31.53932278998883</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4251038644362621</v>
+        <v>0.4251038644362262</v>
       </c>
       <c r="T13" t="n">
-        <v>9.028675106938167</v>
+        <v>9.028675106938136</v>
       </c>
       <c r="U13" t="n">
-        <v>67.59134727882463</v>
+        <v>67.5913472788246</v>
       </c>
       <c r="V13" t="n">
-        <v>34.48632710692797</v>
+        <v>34.48632710692794</v>
       </c>
       <c r="W13" t="n">
-        <v>67.64255292740435</v>
+        <v>67.64255292740432</v>
       </c>
       <c r="X13" t="n">
-        <v>7.690335972298072</v>
+        <v>7.690335972298044</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2986499077570386</v>
+        <v>0.2986499077570102</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>60.24410049029191</v>
+        <v>24.6869033053862</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.565094327417438</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>32.99210285748828</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>6.191472723087966</v>
+        <v>6.191472723087853</v>
       </c>
       <c r="V15" t="n">
-        <v>13.45870707964406</v>
+        <v>13.45870707964394</v>
       </c>
       <c r="W15" t="n">
-        <v>31.53932278998897</v>
+        <v>31.53932278998886</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4251038644363758</v>
+        <v>0.4251038644362546</v>
       </c>
       <c r="T16" t="n">
-        <v>9.02867510693828</v>
+        <v>9.028675106938165</v>
       </c>
       <c r="U16" t="n">
-        <v>67.59134727882474</v>
+        <v>67.59134727882463</v>
       </c>
       <c r="V16" t="n">
-        <v>34.48632710692809</v>
+        <v>34.48632710692797</v>
       </c>
       <c r="W16" t="n">
-        <v>67.64255292740447</v>
+        <v>67.64255292740435</v>
       </c>
       <c r="X16" t="n">
-        <v>7.690335972298186</v>
+        <v>7.690335972298072</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2986499077571523</v>
+        <v>0.2986499077570386</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G17" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2087,13 +2087,13 @@
         <v>6.074615754043805</v>
       </c>
       <c r="E20" t="n">
-        <v>32.58791875473288</v>
+        <v>32.58791875473287</v>
       </c>
       <c r="F20" t="n">
-        <v>56.76374647998625</v>
+        <v>56.76374647998626</v>
       </c>
       <c r="G20" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>56.76374647998625</v>
       </c>
       <c r="G23" t="n">
-        <v>63.87918891521427</v>
+        <v>63.87918891521426</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C26" t="n">
-        <v>145.969977391514</v>
+        <v>145.9699773915141</v>
       </c>
       <c r="D26" t="n">
         <v>135.5896144671698</v>
       </c>
       <c r="E26" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F26" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G26" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H26" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007091</v>
       </c>
       <c r="V26" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W26" t="n">
         <v>129.514998713126</v>
@@ -2621,7 +2621,7 @@
         <v>149.8464808437408</v>
       </c>
       <c r="Y26" t="n">
-        <v>165.6719534638072</v>
+        <v>165.6719534638073</v>
       </c>
     </row>
     <row r="27">
@@ -2688,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670483</v>
       </c>
       <c r="V27" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222657</v>
       </c>
       <c r="W27" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257149</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.46358077952074</v>
+        <v>6.463580779520794</v>
       </c>
       <c r="U28" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140726</v>
       </c>
       <c r="V28" t="n">
-        <v>31.92123277951055</v>
+        <v>31.9212327795106</v>
       </c>
       <c r="W28" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998698</v>
       </c>
       <c r="X28" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880703</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.7012917039664</v>
+        <v>162.7012917039665</v>
       </c>
       <c r="C29" t="n">
         <v>145.969977391514</v>
@@ -2798,16 +2798,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E29" t="n">
-        <v>162.1029174678588</v>
+        <v>162.1029174678589</v>
       </c>
       <c r="F29" t="n">
-        <v>186.2787451931122</v>
+        <v>186.2787451931123</v>
       </c>
       <c r="G29" t="n">
-        <v>193.3941876283402</v>
+        <v>193.3941876283403</v>
       </c>
       <c r="H29" t="n">
-        <v>112.566723118609</v>
+        <v>112.5667231186091</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.42700853007085</v>
+        <v>30.42700853007088</v>
       </c>
       <c r="V29" t="n">
-        <v>107.5181032350907</v>
+        <v>107.5181032350908</v>
       </c>
       <c r="W29" t="n">
         <v>129.514998713126</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>3.626378395670427</v>
+        <v>3.626378395670455</v>
       </c>
       <c r="V30" t="n">
-        <v>10.89361275222652</v>
+        <v>10.89361275222655</v>
       </c>
       <c r="W30" t="n">
-        <v>28.97422846257143</v>
+        <v>28.97422846257146</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>6.46358077952074</v>
+        <v>6.463580779520766</v>
       </c>
       <c r="U31" t="n">
-        <v>65.0262529514072</v>
+        <v>65.02625295140723</v>
       </c>
       <c r="V31" t="n">
-        <v>31.92123277951055</v>
+        <v>31.92123277951058</v>
       </c>
       <c r="W31" t="n">
-        <v>65.07745859998693</v>
+        <v>65.07745859998695</v>
       </c>
       <c r="X31" t="n">
-        <v>5.125241644880646</v>
+        <v>5.125241644880674</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.7012917039665</v>
+        <v>162.7012917039664</v>
       </c>
       <c r="C32" t="n">
         <v>145.969977391514</v>
@@ -3035,16 +3035,16 @@
         <v>135.5896144671698</v>
       </c>
       <c r="E32" t="n">
-        <v>162.1029174678589</v>
+        <v>162.1029174678588</v>
       </c>
       <c r="F32" t="n">
-        <v>186.2787451931123</v>
+        <v>186.2787451931122</v>
       </c>
       <c r="G32" t="n">
         <v>193.3941876283403</v>
       </c>
       <c r="H32" t="n">
-        <v>112.5667231186091</v>
+        <v>112.566723118609</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.42700853007088</v>
+        <v>30.42700853007085</v>
       </c>
       <c r="V32" t="n">
-        <v>107.5181032350908</v>
+        <v>107.5181032350907</v>
       </c>
       <c r="W32" t="n">
         <v>129.514998713126</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3.626378395670455</v>
+        <v>3.626378395670427</v>
       </c>
       <c r="V33" t="n">
-        <v>10.89361275222655</v>
+        <v>10.89361275222652</v>
       </c>
       <c r="W33" t="n">
-        <v>28.97422846257146</v>
+        <v>28.97422846257143</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6.463580779520768</v>
+        <v>6.463580779520737</v>
       </c>
       <c r="U34" t="n">
-        <v>65.02625295140723</v>
+        <v>65.0262529514072</v>
       </c>
       <c r="V34" t="n">
-        <v>31.92123277951058</v>
+        <v>31.92123277951055</v>
       </c>
       <c r="W34" t="n">
-        <v>65.07745859998695</v>
+        <v>65.07745859998693</v>
       </c>
       <c r="X34" t="n">
-        <v>5.125241644880674</v>
+        <v>5.125241644880646</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>164.1591469885704</v>
       </c>
       <c r="G38" t="n">
-        <v>171.2745894237985</v>
+        <v>171.2745894237984</v>
       </c>
       <c r="H38" t="n">
         <v>90.44712491406725</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.307410325529048</v>
+        <v>8.307410325529045</v>
       </c>
       <c r="V38" t="n">
         <v>85.39850503054893</v>
@@ -4037,7 +4037,7 @@
         <v>85.39850503054893</v>
       </c>
       <c r="W44" t="n">
-        <v>107.3954005085839</v>
+        <v>107.3954005085842</v>
       </c>
       <c r="X44" t="n">
         <v>127.726882639199</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="C11" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="D11" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="E11" t="n">
-        <v>212.735477194409</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="F11" t="n">
-        <v>143.6475721559545</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="G11" t="n">
-        <v>74.55966711750006</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="H11" t="n">
         <v>5.471762079045593</v>
       </c>
       <c r="I11" t="n">
-        <v>35.56706215439187</v>
+        <v>34.57507980108241</v>
       </c>
       <c r="J11" t="n">
-        <v>35.56706215439187</v>
+        <v>102.2881355292716</v>
       </c>
       <c r="K11" t="n">
-        <v>35.56706215439187</v>
+        <v>102.2881355292716</v>
       </c>
       <c r="L11" t="n">
-        <v>35.56706215439187</v>
+        <v>102.2881355292716</v>
       </c>
       <c r="M11" t="n">
-        <v>103.2801178825811</v>
+        <v>102.2881355292716</v>
       </c>
       <c r="N11" t="n">
-        <v>120.6926675298135</v>
+        <v>170.0011912574608</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4057232580028</v>
+        <v>237.71424698565</v>
       </c>
       <c r="P11" t="n">
-        <v>188.4057232580028</v>
+        <v>237.71424698565</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.7142469856501</v>
+        <v>237.71424698565</v>
       </c>
       <c r="R11" t="n">
         <v>273.5881039522797</v>
@@ -5069,22 +5069,22 @@
         <v>273.5881039522797</v>
       </c>
       <c r="T11" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="U11" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5881039522797</v>
+        <v>201.9091945426965</v>
       </c>
       <c r="W11" t="n">
-        <v>212.735477194409</v>
+        <v>132.821289504242</v>
       </c>
       <c r="X11" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.735477194409</v>
+        <v>74.55966711750006</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>5.471762079045593</v>
       </c>
       <c r="M12" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="N12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="O12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="P12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="R12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="S12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="T12" t="n">
-        <v>57.17833035452099</v>
+        <v>57.17833035452091</v>
       </c>
       <c r="U12" t="n">
-        <v>50.92431750291711</v>
+        <v>50.92431750291705</v>
       </c>
       <c r="V12" t="n">
-        <v>37.32966388711515</v>
+        <v>37.32966388711512</v>
       </c>
       <c r="W12" t="n">
         <v>5.471762079045593</v>
@@ -5182,64 +5182,64 @@
         <v>5.471762079045593</v>
       </c>
       <c r="E13" t="n">
-        <v>5.471762079045593</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="F13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898324</v>
       </c>
       <c r="G13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898324</v>
       </c>
       <c r="H13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898324</v>
       </c>
       <c r="I13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898324</v>
       </c>
       <c r="J13" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898324</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32914881306534</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="L13" t="n">
-        <v>96.82604910443224</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="M13" t="n">
-        <v>96.82604910443224</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="N13" t="n">
-        <v>164.5391048326215</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="O13" t="n">
-        <v>164.5391048326215</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="R13" t="n">
-        <v>194.5252895180218</v>
+        <v>194.5252895180217</v>
       </c>
       <c r="S13" t="n">
-        <v>194.0958916751569</v>
+        <v>194.0958916751568</v>
       </c>
       <c r="T13" t="n">
-        <v>184.9760178297648</v>
+        <v>184.9760178297647</v>
       </c>
       <c r="U13" t="n">
-        <v>116.7019296693359</v>
+        <v>116.7019296693358</v>
       </c>
       <c r="V13" t="n">
-        <v>81.86725582395414</v>
+        <v>81.86725582395405</v>
       </c>
       <c r="W13" t="n">
-        <v>13.54144478617197</v>
+        <v>13.54144478617191</v>
       </c>
       <c r="X13" t="n">
-        <v>5.773428652537551</v>
+        <v>5.773428652537523</v>
       </c>
       <c r="Y13" t="n">
         <v>5.471762079045593</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.4122938753707</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="C14" t="n">
-        <v>135.4122938753707</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="D14" t="n">
-        <v>135.4122938753707</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="E14" t="n">
         <v>74.55966711750006</v>
@@ -5273,55 +5273,55 @@
         <v>5.471762079045593</v>
       </c>
       <c r="I14" t="n">
-        <v>35.56706215439176</v>
+        <v>35.56706215439191</v>
       </c>
       <c r="J14" t="n">
-        <v>35.56706215439176</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="K14" t="n">
-        <v>95.48833333466553</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48833333466553</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="M14" t="n">
-        <v>95.48833333466553</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="N14" t="n">
-        <v>95.48833333466553</v>
+        <v>103.2801178825811</v>
       </c>
       <c r="O14" t="n">
-        <v>163.2013890628547</v>
+        <v>170.9931736107703</v>
       </c>
       <c r="P14" t="n">
-        <v>165.8971027405235</v>
+        <v>170.9931736107703</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.2056264681708</v>
+        <v>215.2056264681705</v>
       </c>
       <c r="R14" t="n">
-        <v>251.0794834348002</v>
+        <v>251.0794834348</v>
       </c>
       <c r="S14" t="n">
         <v>273.5881039522797</v>
       </c>
       <c r="T14" t="n">
-        <v>273.5881039522797</v>
+        <v>270.9970995811509</v>
       </c>
       <c r="U14" t="n">
-        <v>273.5881039522797</v>
+        <v>237.6717431594456</v>
       </c>
       <c r="V14" t="n">
-        <v>273.5881039522797</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="W14" t="n">
-        <v>204.5001989138252</v>
+        <v>168.5838381209911</v>
       </c>
       <c r="X14" t="n">
-        <v>204.5001989138252</v>
+        <v>99.49593308253662</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.5001989138252</v>
+        <v>99.49593308253662</v>
       </c>
     </row>
     <row r="15">
@@ -5364,34 +5364,34 @@
         <v>5.471762079045593</v>
       </c>
       <c r="M15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="N15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="O15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="P15" t="n">
-        <v>5.471762079045593</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="R15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="S15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="T15" t="n">
-        <v>57.17833035452135</v>
+        <v>57.17833035452099</v>
       </c>
       <c r="U15" t="n">
-        <v>50.92431750291734</v>
+        <v>50.92431750291711</v>
       </c>
       <c r="V15" t="n">
-        <v>37.32966388711526</v>
+        <v>37.32966388711515</v>
       </c>
       <c r="W15" t="n">
         <v>5.471762079045593</v>
@@ -5434,49 +5434,49 @@
         <v>5.471762079045593</v>
       </c>
       <c r="J16" t="n">
-        <v>5.471762079045593</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="K16" t="n">
-        <v>5.471762079045593</v>
+        <v>73.18481780723481</v>
       </c>
       <c r="L16" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="M16" t="n">
-        <v>5.471762079045593</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="N16" t="n">
-        <v>59.09917806164418</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="O16" t="n">
-        <v>126.8122337898334</v>
+        <v>126.8122337898326</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5252895180226</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="Q16" t="n">
-        <v>194.5252895180226</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="R16" t="n">
-        <v>194.5252895180226</v>
+        <v>194.5252895180218</v>
       </c>
       <c r="S16" t="n">
-        <v>194.0958916751576</v>
+        <v>194.0958916751569</v>
       </c>
       <c r="T16" t="n">
-        <v>184.9760178297654</v>
+        <v>184.9760178297648</v>
       </c>
       <c r="U16" t="n">
-        <v>116.7019296693364</v>
+        <v>116.7019296693359</v>
       </c>
       <c r="V16" t="n">
-        <v>81.86725582395448</v>
+        <v>81.86725582395414</v>
       </c>
       <c r="W16" t="n">
-        <v>13.5414447861722</v>
+        <v>13.54144478617197</v>
       </c>
       <c r="X16" t="n">
-        <v>5.773428652537667</v>
+        <v>5.773428652537551</v>
       </c>
       <c r="Y16" t="n">
         <v>5.471762079045593</v>
@@ -5510,37 +5510,37 @@
         <v>22.25055491761735</v>
       </c>
       <c r="I17" t="n">
-        <v>22.25055491761735</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="J17" t="n">
-        <v>89.96361064580658</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="K17" t="n">
-        <v>89.96361064580658</v>
+        <v>70.44893676771201</v>
       </c>
       <c r="L17" t="n">
+        <v>70.44893676771201</v>
+      </c>
+      <c r="M17" t="n">
+        <v>70.44893676771201</v>
+      </c>
+      <c r="N17" t="n">
+        <v>70.44893676771201</v>
+      </c>
+      <c r="O17" t="n">
         <v>138.1619924959012</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
+        <v>138.1619924959012</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>138.1619924959012</v>
+      </c>
+      <c r="R17" t="n">
+        <v>138.1619924959012</v>
+      </c>
+      <c r="S17" t="n">
         <v>205.8750482240905</v>
-      </c>
-      <c r="N17" t="n">
-        <v>205.8750482240905</v>
-      </c>
-      <c r="O17" t="n">
-        <v>205.8750482240905</v>
-      </c>
-      <c r="P17" t="n">
-        <v>205.8750482240905</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>205.8750482240905</v>
-      </c>
-      <c r="R17" t="n">
-        <v>273.5881039522797</v>
-      </c>
-      <c r="S17" t="n">
-        <v>273.5881039522797</v>
       </c>
       <c r="T17" t="n">
         <v>273.5881039522797</v>
@@ -5744,46 +5744,46 @@
         <v>5.471762079045593</v>
       </c>
       <c r="H20" t="n">
-        <v>22.25055491761735</v>
+        <v>5.471762079045593</v>
       </c>
       <c r="I20" t="n">
-        <v>70.44893676771203</v>
+        <v>48.67201024445708</v>
       </c>
       <c r="J20" t="n">
-        <v>138.1619924959012</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="K20" t="n">
-        <v>138.1619924959012</v>
+        <v>184.0981217008355</v>
       </c>
       <c r="L20" t="n">
-        <v>138.1619924959012</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="M20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="N20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="O20" t="n">
-        <v>205.8750482240904</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="P20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="Q20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="R20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="S20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="T20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U20" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V20" t="n">
         <v>273.5881039522797</v>
@@ -5984,43 +5984,43 @@
         <v>5.471762079045594</v>
       </c>
       <c r="I23" t="n">
-        <v>5.471762079045594</v>
+        <v>48.67201024445711</v>
       </c>
       <c r="J23" t="n">
-        <v>5.471762079045594</v>
+        <v>48.67201024445711</v>
       </c>
       <c r="K23" t="n">
-        <v>5.471762079045594</v>
+        <v>48.67201024445711</v>
       </c>
       <c r="L23" t="n">
-        <v>5.471762079045594</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="M23" t="n">
-        <v>5.471762079045594</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="N23" t="n">
-        <v>73.18481780723482</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="O23" t="n">
-        <v>73.18481780723482</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="P23" t="n">
-        <v>73.18481780723482</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.18481780723482</v>
+        <v>116.3850659726463</v>
       </c>
       <c r="R23" t="n">
-        <v>73.18481780723482</v>
+        <v>184.0981217008356</v>
       </c>
       <c r="S23" t="n">
-        <v>140.8978735354241</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="T23" t="n">
-        <v>208.6109292636133</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="U23" t="n">
-        <v>273.5881039522797</v>
+        <v>251.8111774290248</v>
       </c>
       <c r="V23" t="n">
         <v>273.5881039522797</v>
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>980.0203689923729</v>
+        <v>980.0203689923728</v>
       </c>
       <c r="C26" t="n">
         <v>832.5759473847829</v>
       </c>
       <c r="D26" t="n">
-        <v>695.6167408522882</v>
+        <v>695.6167408522881</v>
       </c>
       <c r="E26" t="n">
-        <v>531.8764201776833</v>
+        <v>531.8764201776831</v>
       </c>
       <c r="F26" t="n">
         <v>343.7160714977717</v>
       </c>
       <c r="G26" t="n">
-        <v>148.3684072267213</v>
+        <v>148.3684072267214</v>
       </c>
       <c r="H26" t="n">
         <v>34.66464650085356</v>
       </c>
       <c r="I26" t="n">
-        <v>34.66464650085356</v>
+        <v>49.23646460318875</v>
       </c>
       <c r="J26" t="n">
-        <v>75.15198027298476</v>
+        <v>49.23646460318875</v>
       </c>
       <c r="K26" t="n">
-        <v>471.3528116206732</v>
+        <v>384.7703275405742</v>
       </c>
       <c r="L26" t="n">
-        <v>900.327812068736</v>
+        <v>813.745327988637</v>
       </c>
       <c r="M26" t="n">
-        <v>900.327812068736</v>
+        <v>813.745327988637</v>
       </c>
       <c r="N26" t="n">
-        <v>976.3814251392805</v>
+        <v>1121.286367329206</v>
       </c>
       <c r="O26" t="n">
-        <v>1047.388456865078</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="P26" t="n">
-        <v>1437.736779645827</v>
+        <v>1550.261367777269</v>
       </c>
       <c r="Q26" t="n">
-        <v>1708.184261141055</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R26" t="n">
         <v>1708.184261141055</v>
@@ -6260,7 +6260,7 @@
         <v>1702.497972992101</v>
       </c>
       <c r="V26" t="n">
-        <v>1593.893828310191</v>
+        <v>1593.893828310192</v>
       </c>
       <c r="W26" t="n">
         <v>1463.070597286832</v>
@@ -6312,34 +6312,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="M27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="O27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R27" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="S27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294301</v>
       </c>
       <c r="T27" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294301</v>
       </c>
       <c r="U27" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246777</v>
       </c>
       <c r="V27" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779446</v>
       </c>
       <c r="W27" t="n">
         <v>34.66464650085356</v>
@@ -6391,37 +6391,37 @@
         <v>34.66464650085356</v>
       </c>
       <c r="M28" t="n">
-        <v>150.3806241592532</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="N28" t="n">
-        <v>210.0320876678294</v>
+        <v>98.12510290766038</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0320876678294</v>
+        <v>98.12510290766038</v>
       </c>
       <c r="P28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094784</v>
       </c>
       <c r="Q28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094784</v>
       </c>
       <c r="R28" t="n">
-        <v>210.0320876678294</v>
+        <v>207.9134971094784</v>
       </c>
       <c r="S28" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678297</v>
       </c>
       <c r="T28" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935663</v>
       </c>
       <c r="U28" t="n">
-        <v>137.8201344042658</v>
+        <v>137.820134404266</v>
       </c>
       <c r="V28" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W28" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335932</v>
       </c>
       <c r="X28" t="n">
         <v>34.66464650085356</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>980.0203689923729</v>
+        <v>980.0203689923726</v>
       </c>
       <c r="C29" t="n">
-        <v>832.575947384783</v>
+        <v>832.5759473847827</v>
       </c>
       <c r="D29" t="n">
-        <v>695.6167408522883</v>
+        <v>695.6167408522879</v>
       </c>
       <c r="E29" t="n">
-        <v>531.8764201776834</v>
+        <v>531.8764201776829</v>
       </c>
       <c r="F29" t="n">
-        <v>343.716071497772</v>
+        <v>343.7160714977715</v>
       </c>
       <c r="G29" t="n">
         <v>148.3684072267213</v>
@@ -6464,28 +6464,28 @@
         <v>148.7795367731729</v>
       </c>
       <c r="K29" t="n">
-        <v>544.9803681208613</v>
+        <v>353.8621649148092</v>
       </c>
       <c r="L29" t="n">
-        <v>544.9803681208613</v>
+        <v>414.6874796503157</v>
       </c>
       <c r="M29" t="n">
-        <v>807.8340755618711</v>
+        <v>843.6624800983785</v>
       </c>
       <c r="N29" t="n">
-        <v>1236.809076009934</v>
+        <v>843.6624800983785</v>
       </c>
       <c r="O29" t="n">
-        <v>1236.809076009934</v>
+        <v>1272.637480546441</v>
       </c>
       <c r="P29" t="n">
-        <v>1627.157398790682</v>
+        <v>1331.661853393831</v>
       </c>
       <c r="Q29" t="n">
-        <v>1627.157398790682</v>
+        <v>1602.10933488906</v>
       </c>
       <c r="R29" t="n">
-        <v>1733.232325042678</v>
+        <v>1708.184261141055</v>
       </c>
       <c r="S29" t="n">
         <v>1733.232325042678</v>
@@ -6503,7 +6503,7 @@
         <v>1463.070597286832</v>
       </c>
       <c r="X29" t="n">
-        <v>1311.710515626488</v>
+        <v>1311.710515626487</v>
       </c>
       <c r="Y29" t="n">
         <v>1144.365108087288</v>
@@ -6555,28 +6555,28 @@
         <v>34.66464650085356</v>
       </c>
       <c r="O30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="P30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.59820166294284</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="R30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="S30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="T30" t="n">
-        <v>78.59820166294284</v>
+        <v>78.59820166294293</v>
       </c>
       <c r="U30" t="n">
-        <v>74.93519318246766</v>
+        <v>74.93519318246771</v>
       </c>
       <c r="V30" t="n">
-        <v>63.9315439377944</v>
+        <v>63.93154393779443</v>
       </c>
       <c r="W30" t="n">
         <v>34.66464650085356</v>
@@ -6598,67 +6598,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G31" t="n">
-        <v>87.80642620351756</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H31" t="n">
-        <v>87.80642620351756</v>
+        <v>95.21067851167774</v>
       </c>
       <c r="I31" t="n">
-        <v>87.80642620351756</v>
+        <v>95.21067851167774</v>
       </c>
       <c r="J31" t="n">
-        <v>87.80642620351756</v>
+        <v>95.21067851167774</v>
       </c>
       <c r="K31" t="n">
-        <v>87.80642620351756</v>
+        <v>95.21067851167774</v>
       </c>
       <c r="L31" t="n">
-        <v>87.80642620351756</v>
+        <v>100.2436934660115</v>
       </c>
       <c r="M31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660115</v>
       </c>
       <c r="N31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660115</v>
       </c>
       <c r="O31" t="n">
-        <v>100.2436934660114</v>
+        <v>100.2436934660115</v>
       </c>
       <c r="P31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="Q31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="R31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="S31" t="n">
-        <v>210.0320876678294</v>
+        <v>210.0320876678295</v>
       </c>
       <c r="T31" t="n">
-        <v>203.503218193566</v>
+        <v>203.5032181935661</v>
       </c>
       <c r="U31" t="n">
-        <v>137.8201344042658</v>
+        <v>137.8201344042659</v>
       </c>
       <c r="V31" t="n">
-        <v>105.5764649300127</v>
+        <v>105.5764649300128</v>
       </c>
       <c r="W31" t="n">
-        <v>39.84165826335926</v>
+        <v>39.84165826335929</v>
       </c>
       <c r="X31" t="n">
         <v>34.66464650085356</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>980.0203689923733</v>
+        <v>980.0203689923732</v>
       </c>
       <c r="C32" t="n">
-        <v>832.5759473847834</v>
+        <v>832.5759473847833</v>
       </c>
       <c r="D32" t="n">
         <v>695.6167408522886</v>
       </c>
       <c r="E32" t="n">
-        <v>531.8764201776836</v>
+        <v>531.8764201776835</v>
       </c>
       <c r="F32" t="n">
         <v>343.7160714977722</v>
@@ -6695,34 +6695,34 @@
         <v>34.66464650085356</v>
       </c>
       <c r="I32" t="n">
-        <v>67.29938996034306</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="J32" t="n">
-        <v>322.88141175434</v>
+        <v>67.29938996034312</v>
       </c>
       <c r="K32" t="n">
-        <v>385.3421263187571</v>
+        <v>129.7601045247604</v>
       </c>
       <c r="L32" t="n">
-        <v>814.3171267668199</v>
+        <v>558.7351049728231</v>
       </c>
       <c r="M32" t="n">
-        <v>888.2169926985971</v>
+        <v>558.7351049728231</v>
       </c>
       <c r="N32" t="n">
-        <v>888.8609379122441</v>
+        <v>987.710105420886</v>
       </c>
       <c r="O32" t="n">
-        <v>1317.835938360307</v>
+        <v>1058.717137146684</v>
       </c>
       <c r="P32" t="n">
-        <v>1708.184261141055</v>
+        <v>1424.371543196677</v>
       </c>
       <c r="Q32" t="n">
-        <v>1708.184261141055</v>
+        <v>1694.819024691905</v>
       </c>
       <c r="R32" t="n">
-        <v>1708.184261141055</v>
+        <v>1733.232325042678</v>
       </c>
       <c r="S32" t="n">
         <v>1733.232325042678</v>
@@ -6804,16 +6804,16 @@
         <v>34.66464650085356</v>
       </c>
       <c r="S33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="T33" t="n">
-        <v>78.59820166294293</v>
+        <v>78.59820166294284</v>
       </c>
       <c r="U33" t="n">
-        <v>74.93519318246771</v>
+        <v>74.93519318246766</v>
       </c>
       <c r="V33" t="n">
-        <v>63.93154393779443</v>
+        <v>63.9315439377944</v>
       </c>
       <c r="W33" t="n">
         <v>34.66464650085356</v>
@@ -6835,67 +6835,67 @@
         <v>34.66464650085356</v>
       </c>
       <c r="C34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="D34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="E34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="F34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="G34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="H34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="I34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="J34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="K34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="L34" t="n">
-        <v>81.40031089029125</v>
+        <v>34.66464650085356</v>
       </c>
       <c r="M34" t="n">
-        <v>81.40031089029125</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="N34" t="n">
-        <v>210.0320876678296</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="O34" t="n">
-        <v>210.0320876678296</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="P34" t="n">
-        <v>210.0320876678296</v>
+        <v>150.3806241592533</v>
       </c>
       <c r="Q34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="R34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="S34" t="n">
-        <v>210.0320876678296</v>
+        <v>210.0320876678294</v>
       </c>
       <c r="T34" t="n">
-        <v>203.5032181935661</v>
+        <v>203.503218193566</v>
       </c>
       <c r="U34" t="n">
-        <v>137.8201344042659</v>
+        <v>137.8201344042658</v>
       </c>
       <c r="V34" t="n">
-        <v>105.5764649300128</v>
+        <v>105.5764649300127</v>
       </c>
       <c r="W34" t="n">
-        <v>39.84165826335929</v>
+        <v>39.84165826335926</v>
       </c>
       <c r="X34" t="n">
         <v>34.66464650085356</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>840.4904359767097</v>
+        <v>840.4904359767103</v>
       </c>
       <c r="C35" t="n">
-        <v>715.3890428585563</v>
+        <v>715.3890428585564</v>
       </c>
       <c r="D35" t="n">
         <v>600.7728648154978</v>
@@ -6932,55 +6932,55 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I35" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379392</v>
       </c>
       <c r="J35" t="n">
-        <v>187.10457913912</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K35" t="n">
-        <v>271.4636959260336</v>
+        <v>548.3665238589937</v>
       </c>
       <c r="L35" t="n">
-        <v>632.7256406459071</v>
+        <v>631.0902408169966</v>
       </c>
       <c r="M35" t="n">
-        <v>993.9875853657807</v>
+        <v>658.8586631962909</v>
       </c>
       <c r="N35" t="n">
-        <v>1091.939600658822</v>
+        <v>756.8106784893321</v>
       </c>
       <c r="O35" t="n">
-        <v>1184.845034607116</v>
+        <v>849.7161124376264</v>
       </c>
       <c r="P35" t="n">
-        <v>1265.767809677002</v>
+        <v>1210.9780571575</v>
       </c>
       <c r="Q35" t="n">
-        <v>1390.799352743782</v>
+        <v>1284.724426491787</v>
       </c>
       <c r="R35" t="n">
-        <v>1390.799352743782</v>
+        <v>1412.697754966279</v>
       </c>
       <c r="S35" t="n">
-        <v>1437.745818867902</v>
+        <v>1459.644221090398</v>
       </c>
       <c r="T35" t="n">
         <v>1459.644221090398</v>
       </c>
       <c r="U35" t="n">
-        <v>1451.252897529257</v>
+        <v>1451.252897529258</v>
       </c>
       <c r="V35" t="n">
-        <v>1364.991781336783</v>
+        <v>1364.991781336784</v>
       </c>
       <c r="W35" t="n">
-        <v>1256.51157880286</v>
+        <v>1256.511578802861</v>
       </c>
       <c r="X35" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y35" t="n">
-        <v>982.492146582189</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="36">
@@ -7011,37 +7011,37 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="J36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="K36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="L36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="R36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="S36" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="T36" t="n">
         <v>36.11675336931264</v>
@@ -7084,22 +7084,22 @@
         <v>29.19288442180796</v>
       </c>
       <c r="G37" t="n">
-        <v>29.19288442180796</v>
+        <v>31.39397561677762</v>
       </c>
       <c r="H37" t="n">
-        <v>29.19288442180796</v>
+        <v>31.39397561677762</v>
       </c>
       <c r="I37" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="J37" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="K37" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="L37" t="n">
-        <v>29.19288442180796</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="M37" t="n">
         <v>125.8253588837062</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>840.4904359767096</v>
+        <v>840.49043597671</v>
       </c>
       <c r="C38" t="n">
-        <v>715.3890428585559</v>
+        <v>715.3890428585563</v>
       </c>
       <c r="D38" t="n">
-        <v>600.7728648154973</v>
+        <v>600.7728648154978</v>
       </c>
       <c r="E38" t="n">
-        <v>459.3755726303285</v>
+        <v>459.375572630329</v>
       </c>
       <c r="F38" t="n">
-        <v>293.5582524398533</v>
+        <v>293.5582524398538</v>
       </c>
       <c r="G38" t="n">
         <v>120.5536166582395</v>
@@ -7169,37 +7169,37 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I38" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379392</v>
       </c>
       <c r="J38" t="n">
-        <v>361.2064541202872</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K38" t="n">
-        <v>445.5655709072007</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L38" t="n">
-        <v>445.5655709072007</v>
+        <v>354.1874128840367</v>
       </c>
       <c r="M38" t="n">
-        <v>541.3638390614742</v>
+        <v>604.2630275699764</v>
       </c>
       <c r="N38" t="n">
-        <v>556.1157936189754</v>
+        <v>604.2630275699764</v>
       </c>
       <c r="O38" t="n">
-        <v>917.377738338849</v>
+        <v>697.1684615182708</v>
       </c>
       <c r="P38" t="n">
-        <v>1278.639683058723</v>
+        <v>1058.430406238144</v>
       </c>
       <c r="Q38" t="n">
-        <v>1352.38605239301</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R38" t="n">
-        <v>1412.697754966279</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S38" t="n">
-        <v>1459.644221090398</v>
+        <v>1437.745818867902</v>
       </c>
       <c r="T38" t="n">
         <v>1459.644221090398</v>
@@ -7217,7 +7217,7 @@
         <v>1127.494525631952</v>
       </c>
       <c r="Y38" t="n">
-        <v>982.492146582189</v>
+        <v>982.4921465821894</v>
       </c>
     </row>
     <row r="39">
@@ -7327,37 +7327,37 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I40" t="n">
-        <v>29.19288442180796</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19288442180796</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="K40" t="n">
-        <v>29.19288442180796</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="L40" t="n">
-        <v>29.19288442180796</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="M40" t="n">
-        <v>29.19288442180796</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="N40" t="n">
-        <v>86.30890885208765</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="O40" t="n">
-        <v>86.30890885208765</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="P40" t="n">
-        <v>86.30890885208765</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.30890885208765</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="R40" t="n">
-        <v>86.30890885208765</v>
+        <v>101.8083661028585</v>
       </c>
       <c r="S40" t="n">
-        <v>110.3259016329354</v>
+        <v>125.8253588837062</v>
       </c>
       <c r="T40" t="n">
         <v>125.8253588837062</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>840.49043597671</v>
+        <v>840.4904359767104</v>
       </c>
       <c r="C41" t="n">
-        <v>715.3890428585562</v>
+        <v>715.3890428585568</v>
       </c>
       <c r="D41" t="n">
-        <v>600.7728648154978</v>
+        <v>600.7728648154982</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3755726303291</v>
+        <v>459.3755726303293</v>
       </c>
       <c r="F41" t="n">
-        <v>293.5582524398537</v>
+        <v>293.558252439854</v>
       </c>
       <c r="G41" t="n">
         <v>120.5536166582395</v>
@@ -7406,31 +7406,31 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I41" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379392</v>
       </c>
       <c r="J41" t="n">
-        <v>83.72603010379387</v>
+        <v>187.1045791391201</v>
       </c>
       <c r="K41" t="n">
-        <v>444.9879748236674</v>
+        <v>271.4636959260338</v>
       </c>
       <c r="L41" t="n">
-        <v>527.7116917816701</v>
+        <v>422.7097861114104</v>
       </c>
       <c r="M41" t="n">
-        <v>653.9895011969496</v>
+        <v>518.5080542656841</v>
       </c>
       <c r="N41" t="n">
-        <v>1015.251445916823</v>
+        <v>534.2173913964791</v>
       </c>
       <c r="O41" t="n">
-        <v>1108.156879865117</v>
+        <v>895.4793361163527</v>
       </c>
       <c r="P41" t="n">
-        <v>1189.079654935004</v>
+        <v>1256.741280836226</v>
       </c>
       <c r="Q41" t="n">
-        <v>1262.826024269291</v>
+        <v>1330.487650170513</v>
       </c>
       <c r="R41" t="n">
         <v>1390.799352743782</v>
@@ -7451,10 +7451,10 @@
         <v>1256.511578802861</v>
       </c>
       <c r="X41" t="n">
-        <v>1127.494525631952</v>
+        <v>1127.494525631953</v>
       </c>
       <c r="Y41" t="n">
-        <v>982.4921465821894</v>
+        <v>982.4921465821898</v>
       </c>
     </row>
     <row r="42">
@@ -7506,13 +7506,13 @@
         <v>29.19288442180796</v>
       </c>
       <c r="P42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="R42" t="n">
-        <v>29.19288442180796</v>
+        <v>36.11675336931264</v>
       </c>
       <c r="S42" t="n">
         <v>36.11675336931264</v>
@@ -7582,19 +7582,19 @@
         <v>29.19288442180796</v>
       </c>
       <c r="O43" t="n">
-        <v>29.19288442180796</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="P43" t="n">
-        <v>29.19288442180796</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.8253588837062</v>
+        <v>32.38507935689088</v>
       </c>
       <c r="R43" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329354</v>
       </c>
       <c r="S43" t="n">
-        <v>125.8253588837062</v>
+        <v>110.3259016329354</v>
       </c>
       <c r="T43" t="n">
         <v>125.8253588837062</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>840.4904359767106</v>
+        <v>840.4904359767102</v>
       </c>
       <c r="C44" t="n">
-        <v>715.3890428585566</v>
+        <v>715.3890428585561</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7728648154981</v>
+        <v>600.7728648154975</v>
       </c>
       <c r="E44" t="n">
-        <v>459.3755726303293</v>
+        <v>459.3755726303289</v>
       </c>
       <c r="F44" t="n">
-        <v>293.5582524398541</v>
+        <v>293.5582524398537</v>
       </c>
       <c r="G44" t="n">
         <v>120.5536166582395</v>
@@ -7643,34 +7643,34 @@
         <v>29.19288442180796</v>
       </c>
       <c r="I44" t="n">
-        <v>83.72603010379387</v>
+        <v>83.72603010379392</v>
       </c>
       <c r="J44" t="n">
-        <v>311.5373803481446</v>
+        <v>288.0337803829799</v>
       </c>
       <c r="K44" t="n">
-        <v>311.5373803481446</v>
+        <v>649.2957251028535</v>
       </c>
       <c r="L44" t="n">
-        <v>672.7993250680181</v>
+        <v>732.0194420608564</v>
       </c>
       <c r="M44" t="n">
-        <v>768.5975932222916</v>
+        <v>827.8177102151301</v>
       </c>
       <c r="N44" t="n">
-        <v>1129.859537942165</v>
+        <v>827.8177102151301</v>
       </c>
       <c r="O44" t="n">
-        <v>1222.764971890459</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="P44" t="n">
-        <v>1303.687746960346</v>
+        <v>1189.079654935004</v>
       </c>
       <c r="Q44" t="n">
-        <v>1377.434116294633</v>
+        <v>1262.826024269291</v>
       </c>
       <c r="R44" t="n">
-        <v>1437.745818867902</v>
+        <v>1390.799352743782</v>
       </c>
       <c r="S44" t="n">
         <v>1437.745818867902</v>
@@ -7691,7 +7691,7 @@
         <v>1127.494525631953</v>
       </c>
       <c r="Y44" t="n">
-        <v>982.4921465821901</v>
+        <v>982.4921465821897</v>
       </c>
     </row>
     <row r="45">
@@ -7737,13 +7737,13 @@
         <v>29.19288442180796</v>
       </c>
       <c r="N45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="P45" t="n">
-        <v>36.11675336931264</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="Q45" t="n">
         <v>36.11675336931264</v>
@@ -7810,13 +7810,13 @@
         <v>29.19288442180796</v>
       </c>
       <c r="L46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="M46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="N46" t="n">
-        <v>125.8253588837062</v>
+        <v>29.19288442180796</v>
       </c>
       <c r="O46" t="n">
         <v>125.8253588837062</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>114.9134289358971</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>70.58724579725052</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>168.6434343361248</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8845,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>168.9736896032166</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8863,10 +8863,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4068258466027</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>159.5754064333818</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>79.65527369999911</v>
+        <v>77.83614047967491</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0746097200388</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1112290740114</v>
+        <v>275.8314630029981</v>
       </c>
       <c r="L26" t="n">
-        <v>371.8683694066227</v>
+        <v>371.8683694066226</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>361.5838067901666</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>95.90842290065692</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.34253660377365</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L28" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N28" t="n">
-        <v>154.1698378208312</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95667671286152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1112290740114</v>
+        <v>307.9448274433203</v>
       </c>
       <c r="L29" t="n">
-        <v>159.5754064333818</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>190.8624661709421</v>
+        <v>358.661752036652</v>
       </c>
       <c r="N29" t="n">
-        <v>356.486249876281</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O29" t="n">
-        <v>118.3059634203805</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>102.5727324697714</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>371.8683694066227</v>
+        <v>371.8683694066225</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>144.8437366137947</v>
+        <v>406.5554278918613</v>
       </c>
       <c r="O32" t="n">
-        <v>361.5838067901668</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>309.7273062652553</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R32" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.98169097563226</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>102.5727324697714</v>
@@ -10513,16 +10513,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M34" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2.831803643465378</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P34" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>279.699826194909</v>
       </c>
       <c r="L35" t="n">
-        <v>361.2440210450534</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>268.1451278440404</v>
+        <v>174.4177005576477</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>283.1708784343305</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.80320579039736</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10747,22 +10747,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>25.87095300758875</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>79.46509142637828</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>155.8357035673394</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>271.0671825975549</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>283.1708784343307</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>138.7119396886107</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>279.6998261949091</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>69.21451841148863</v>
       </c>
       <c r="M41" t="n">
-        <v>30.78741541515755</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>265.9696256836693</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.34507666790174</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>47.34253660377365</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11224,19 +11224,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>99.23428705265147</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N43" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.95667671286152</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>125.6896981909339</v>
+        <v>101.9486881251109</v>
       </c>
       <c r="K44" t="n">
-        <v>119.9332498399645</v>
+        <v>279.699826194909</v>
       </c>
       <c r="L44" t="n">
-        <v>281.3517452140109</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>265.9696256836693</v>
+        <v>41.18853927767586</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>271.0671825975547</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.34507666790174</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11458,13 +11458,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.2663860313839</v>
+        <v>165.2663860313838</v>
       </c>
       <c r="C11" t="n">
         <v>148.5350717189314</v>
@@ -23264,16 +23264,16 @@
         <v>138.1547087945872</v>
       </c>
       <c r="E11" t="n">
-        <v>164.6680117952763</v>
+        <v>96.27098580720633</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4468135324597</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G11" t="n">
-        <v>127.5622559676878</v>
+        <v>195.9592819557576</v>
       </c>
       <c r="H11" t="n">
-        <v>46.73479145795658</v>
+        <v>115.1318174460264</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.565094327417455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>32.99210285748828</v>
+        <v>32.99210285748824</v>
       </c>
       <c r="V11" t="n">
-        <v>110.0831975625082</v>
+        <v>41.68617157443822</v>
       </c>
       <c r="W11" t="n">
-        <v>71.83599255025145</v>
+        <v>63.68306705247346</v>
       </c>
       <c r="X11" t="n">
-        <v>152.4115751711582</v>
+        <v>94.73256900828363</v>
       </c>
       <c r="Y11" t="n">
         <v>168.2370477912246</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.86936004331406</v>
+        <v>165.2663860313839</v>
       </c>
       <c r="C14" t="n">
-        <v>148.5350717189316</v>
+        <v>148.5350717189314</v>
       </c>
       <c r="D14" t="n">
-        <v>138.1547087945873</v>
+        <v>138.1547087945872</v>
       </c>
       <c r="E14" t="n">
-        <v>104.4239113049845</v>
+        <v>139.9811084898901</v>
       </c>
       <c r="F14" t="n">
-        <v>188.8438395205298</v>
+        <v>188.8438395205297</v>
       </c>
       <c r="G14" t="n">
-        <v>195.9592819557578</v>
+        <v>195.9592819557577</v>
       </c>
       <c r="H14" t="n">
-        <v>46.73479145795669</v>
+        <v>46.73479145795656</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.565094327417556</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>32.99210285748838</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.0831975625083</v>
+        <v>41.68617157443825</v>
       </c>
       <c r="W14" t="n">
-        <v>63.6830670524736</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="X14" t="n">
-        <v>152.4115751711583</v>
+        <v>84.01454918308829</v>
       </c>
       <c r="Y14" t="n">
-        <v>168.2370477912247</v>
+        <v>168.2370477912246</v>
       </c>
     </row>
     <row r="15">
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>570733.53583271</v>
+        <v>570733.5358327097</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732077.7075757771</v>
+        <v>732077.707575777</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693012.5944234909</v>
+        <v>693012.5944234908</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693012.5944234909</v>
+        <v>693012.5944234908</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>771548.5588679537</v>
       </c>
       <c r="E2" t="n">
-        <v>663612.773776589</v>
+        <v>663612.7737765887</v>
       </c>
       <c r="F2" t="n">
-        <v>663612.7737765886</v>
+        <v>663612.7737765888</v>
       </c>
       <c r="G2" t="n">
-        <v>773223.4381841896</v>
+        <v>773223.4381841898</v>
       </c>
       <c r="H2" t="n">
-        <v>773223.4381841898</v>
+        <v>773223.4381841901</v>
       </c>
       <c r="I2" t="n">
+        <v>773223.43818419</v>
+      </c>
+      <c r="J2" t="n">
+        <v>773223.4381841901</v>
+      </c>
+      <c r="K2" t="n">
         <v>773223.4381841897</v>
       </c>
-      <c r="J2" t="n">
-        <v>773223.4381841894</v>
-      </c>
-      <c r="K2" t="n">
-        <v>773223.4381841898</v>
-      </c>
       <c r="L2" t="n">
-        <v>773223.4381841895</v>
+        <v>773223.4381841897</v>
       </c>
       <c r="M2" t="n">
         <v>773223.4381841895</v>
       </c>
       <c r="N2" t="n">
-        <v>773223.4381841897</v>
+        <v>773223.4381841894</v>
       </c>
       <c r="O2" t="n">
-        <v>773223.4381841893</v>
+        <v>773223.4381841895</v>
       </c>
       <c r="P2" t="n">
-        <v>773223.4381841894</v>
+        <v>773223.4381841896</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>284205.3843039991</v>
+        <v>284205.3843039993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105664.0744324348</v>
+        <v>105664.0744324347</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105664.0744324348</v>
+        <v>105664.0744324347</v>
       </c>
       <c r="M3" t="n">
-        <v>17695.67856363346</v>
+        <v>17695.67856363344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>71148.02019750816</v>
+        <v>71148.02019750814</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>463552.1206356916</v>
       </c>
       <c r="E4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="F4" t="n">
-        <v>361458.6760153741</v>
+        <v>361458.676015374</v>
       </c>
       <c r="G4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="H4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="I4" t="n">
-        <v>426193.4292983838</v>
+        <v>426193.4292983836</v>
       </c>
       <c r="J4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="K4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="L4" t="n">
-        <v>434774.7393444278</v>
+        <v>434774.7393444277</v>
       </c>
       <c r="M4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="N4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
       <c r="O4" t="n">
         <v>431062.8369613773</v>
       </c>
       <c r="P4" t="n">
-        <v>431062.8369613773</v>
+        <v>431062.8369613772</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>24939.02968325745</v>
       </c>
       <c r="F5" t="n">
-        <v>24939.02968325743</v>
+        <v>24939.02968325745</v>
       </c>
       <c r="G5" t="n">
         <v>36042.87102508289</v>
@@ -26500,16 +26500,16 @@
         <v>47341.26675884315</v>
       </c>
       <c r="M5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="N5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="O5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
       <c r="P5" t="n">
-        <v>45042.30008022612</v>
+        <v>45042.30008022613</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274368.8382322621</v>
+        <v>274364.4306551141</v>
       </c>
       <c r="C6" t="n">
-        <v>274368.838232262</v>
+        <v>274364.430655114</v>
       </c>
       <c r="D6" t="n">
-        <v>274368.8382322621</v>
+        <v>274364.4306551141</v>
       </c>
       <c r="E6" t="n">
-        <v>-6990.316226041636</v>
+        <v>-7278.765342904155</v>
       </c>
       <c r="F6" t="n">
-        <v>277215.0680779571</v>
+        <v>276926.6189610953</v>
       </c>
       <c r="G6" t="n">
-        <v>205323.0634282881</v>
+        <v>205323.0634282886</v>
       </c>
       <c r="H6" t="n">
-        <v>310987.1378607232</v>
+        <v>310987.1378607235</v>
       </c>
       <c r="I6" t="n">
-        <v>310987.1378607231</v>
+        <v>310987.1378607234</v>
       </c>
       <c r="J6" t="n">
-        <v>124482.6237376663</v>
+        <v>124482.6237376671</v>
       </c>
       <c r="K6" t="n">
         <v>291107.4320809189</v>
       </c>
       <c r="L6" t="n">
-        <v>185443.3576484838</v>
+        <v>185443.3576484841</v>
       </c>
       <c r="M6" t="n">
         <v>279422.6225789526</v>
       </c>
       <c r="N6" t="n">
+        <v>297118.301142586</v>
+      </c>
+      <c r="O6" t="n">
+        <v>225970.2809450779</v>
+      </c>
+      <c r="P6" t="n">
         <v>297118.3011425863</v>
-      </c>
-      <c r="O6" t="n">
-        <v>225970.2809450777</v>
-      </c>
-      <c r="P6" t="n">
-        <v>297118.3011425859</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>218.4500239600112</v>
       </c>
       <c r="F2" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="G2" t="n">
         <v>350.5301170005546</v>
@@ -26707,7 +26707,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="J2" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="K2" t="n">
         <v>221.0151182874286</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="F3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="G3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="H3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="I3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="J3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="K3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="L3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="M3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="N3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="O3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="P3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
     </row>
     <row r="4">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
-        <v>22.11959820454183</v>
+        <v>22.1195982045418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>110.8080476554409</v>
+        <v>110.8080476554412</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>132.0800930405435</v>
+        <v>132.0800930405434</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>88.9350252468852</v>
+        <v>88.93502524688517</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28108,31 +28108,31 @@
         <v>218.4500239600112</v>
       </c>
       <c r="I11" t="n">
-        <v>218.4500239600112</v>
+        <v>217.4480215829309</v>
       </c>
       <c r="J11" t="n">
-        <v>23.79851075271351</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K11" t="n">
-        <v>157.92348741428</v>
+        <v>87.33624161702934</v>
       </c>
       <c r="L11" t="n">
-        <v>159.5754064333818</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M11" t="n">
-        <v>214.7658150514812</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N11" t="n">
-        <v>161.7817208901436</v>
+        <v>212.5903128911098</v>
       </c>
       <c r="O11" t="n">
-        <v>217.6878698049957</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P11" t="n">
-        <v>161.3945396537015</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q11" t="n">
-        <v>218.4500239600112</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>218.4500239600112</v>
@@ -28187,34 +28187,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I12" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K12" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L12" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M12" t="n">
-        <v>78.19029710175256</v>
+        <v>130.4191539456669</v>
       </c>
       <c r="N12" t="n">
-        <v>118.2982863334665</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O12" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P12" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q12" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R12" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S12" t="n">
         <v>164.5345187941275</v>
@@ -28254,10 +28254,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>215.3716501612691</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>200.3281284629334</v>
       </c>
       <c r="G13" t="n">
         <v>167.689771139254</v>
@@ -28269,28 +28269,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J13" t="n">
-        <v>74.71172711439593</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K13" t="n">
-        <v>127.6812039182762</v>
+        <v>170.9697584578413</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M13" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N13" t="n">
-        <v>162.3128602648848</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O13" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.02868467987659</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R13" t="n">
         <v>164.4066131828346</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="C14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="D14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="E14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="F14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="I14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="J14" t="n">
-        <v>138.7119396886107</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K14" t="n">
-        <v>218.4500239600111</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M14" t="n">
-        <v>146.3687890634113</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N14" t="n">
-        <v>64.53801320304099</v>
+        <v>66.35714642336502</v>
       </c>
       <c r="O14" t="n">
-        <v>217.6878698049957</v>
+        <v>217.6878698049955</v>
       </c>
       <c r="P14" t="n">
-        <v>164.1174827624578</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>218.4500239600111</v>
+        <v>213.302477626428</v>
       </c>
       <c r="R14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="S14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="U14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="15">
@@ -28424,34 +28424,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I15" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K15" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L15" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M15" t="n">
-        <v>78.19029710175256</v>
+        <v>130.419153945667</v>
       </c>
       <c r="N15" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O15" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P15" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.2869599837863</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R15" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S15" t="n">
         <v>164.5345187941275</v>
@@ -28460,13 +28460,13 @@
         <v>197.4218470422748</v>
       </c>
       <c r="U15" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V15" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W15" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -28506,25 +28506,25 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J16" t="n">
-        <v>109.6934180900282</v>
+        <v>178.0904440780981</v>
       </c>
       <c r="K16" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L16" t="n">
-        <v>101.8051034503207</v>
+        <v>155.9742105034498</v>
       </c>
       <c r="M16" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N16" t="n">
-        <v>148.0849413299447</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O16" t="n">
-        <v>175.148814504079</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P16" t="n">
-        <v>178.5147763948743</v>
+        <v>178.5147763948742</v>
       </c>
       <c r="Q16" t="n">
         <v>130.9853613927381</v>
@@ -28533,25 +28533,25 @@
         <v>164.4066131828346</v>
       </c>
       <c r="S16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="U16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="V16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="W16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="X16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.4500239600111</v>
+        <v>218.4500239600112</v>
       </c>
     </row>
     <row r="17">
@@ -28582,40 +28582,40 @@
         <v>350.5301170005546</v>
       </c>
       <c r="I17" t="n">
-        <v>188.0507309546109</v>
+        <v>236.7359651466257</v>
       </c>
       <c r="J17" t="n">
-        <v>207.1089656766806</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K17" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L17" t="n">
-        <v>208.2606406253966</v>
+        <v>159.5754064333817</v>
       </c>
       <c r="M17" t="n">
-        <v>214.7658150514812</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N17" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O17" t="n">
-        <v>149.2908438169258</v>
+        <v>217.6878698049956</v>
       </c>
       <c r="P17" t="n">
-        <v>161.3945396537015</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q17" t="n">
-        <v>168.643434336125</v>
+        <v>168.6434343361248</v>
       </c>
       <c r="R17" t="n">
-        <v>250.6108307898695</v>
+        <v>182.2138048017995</v>
       </c>
       <c r="S17" t="n">
-        <v>195.7140436393247</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T17" t="n">
-        <v>221.0151182874286</v>
+        <v>289.4121442754985</v>
       </c>
       <c r="U17" t="n">
         <v>251.4421268174995</v>
@@ -28661,34 +28661,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I18" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K18" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L18" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M18" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N18" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O18" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P18" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R18" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S18" t="n">
         <v>164.5345187941275</v>
@@ -28743,7 +28743,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K19" t="n">
         <v>102.5727324697714</v>
@@ -28752,16 +28752,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M19" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N19" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O19" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P19" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q19" t="n">
         <v>130.9853613927381</v>
@@ -28816,34 +28816,34 @@
         <v>350.5301170005546</v>
       </c>
       <c r="H20" t="n">
-        <v>350.5301170005546</v>
+        <v>333.5818414060377</v>
       </c>
       <c r="I20" t="n">
-        <v>236.7359651466257</v>
+        <v>231.6873452631073</v>
       </c>
       <c r="J20" t="n">
-        <v>207.1089656766806</v>
+        <v>207.1089656766805</v>
       </c>
       <c r="K20" t="n">
-        <v>157.92348741428</v>
+        <v>226.3205134023498</v>
       </c>
       <c r="L20" t="n">
-        <v>159.5754064333818</v>
+        <v>227.9724324214516</v>
       </c>
       <c r="M20" t="n">
-        <v>214.7658150514812</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N20" t="n">
-        <v>144.1932869030401</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O20" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P20" t="n">
-        <v>229.7915656417714</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.643434336125</v>
+        <v>168.6434343361248</v>
       </c>
       <c r="R20" t="n">
         <v>182.2138048017995</v>
@@ -28858,7 +28858,7 @@
         <v>251.4421268174995</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -28898,34 +28898,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I21" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J21" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K21" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L21" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M21" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N21" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O21" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P21" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R21" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S21" t="n">
         <v>164.5345187941275</v>
@@ -28980,7 +28980,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K22" t="n">
         <v>102.5727324697714</v>
@@ -28989,16 +28989,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M22" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N22" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O22" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P22" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q22" t="n">
         <v>130.9853613927381</v>
@@ -29056,46 +29056,46 @@
         <v>333.5818414060377</v>
       </c>
       <c r="I23" t="n">
-        <v>188.0507309546109</v>
+        <v>231.6873452631073</v>
       </c>
       <c r="J23" t="n">
-        <v>138.7119396886107</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K23" t="n">
-        <v>157.92348741428</v>
+        <v>157.9234874142799</v>
       </c>
       <c r="L23" t="n">
-        <v>159.5754064333818</v>
+        <v>227.9724324214516</v>
       </c>
       <c r="M23" t="n">
-        <v>146.3687890634113</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N23" t="n">
-        <v>212.59031289111</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O23" t="n">
-        <v>149.2908438169258</v>
+        <v>149.2908438169256</v>
       </c>
       <c r="P23" t="n">
-        <v>161.3945396537015</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q23" t="n">
-        <v>168.643434336125</v>
+        <v>168.6434343361248</v>
       </c>
       <c r="R23" t="n">
-        <v>182.2138048017995</v>
+        <v>250.6108307898694</v>
       </c>
       <c r="S23" t="n">
-        <v>264.1110696273947</v>
+        <v>264.1110696273946</v>
       </c>
       <c r="T23" t="n">
-        <v>289.4121442754986</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U23" t="n">
-        <v>317.0756366040312</v>
+        <v>251.4421268174995</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -29135,34 +29135,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I24" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J24" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K24" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L24" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M24" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N24" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O24" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P24" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R24" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S24" t="n">
         <v>164.5345187941275</v>
@@ -29217,7 +29217,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K25" t="n">
         <v>102.5727324697714</v>
@@ -29226,16 +29226,16 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M25" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N25" t="n">
-        <v>93.91583427681485</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O25" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P25" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q25" t="n">
         <v>130.9853613927381</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="C26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="D26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="E26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="F26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="G26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="H26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="I26" t="n">
-        <v>188.0507309546109</v>
+        <v>202.7697391387878</v>
       </c>
       <c r="J26" t="n">
-        <v>32.53362670809834</v>
+        <v>138.7119396886106</v>
       </c>
       <c r="K26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="L26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="M26" t="n">
-        <v>146.3687890634113</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N26" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="P26" t="n">
-        <v>221.0151182874286</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="R26" t="n">
-        <v>182.2138048017995</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="S26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="T26" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="U26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="V26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="W26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="X26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="Y26" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
     </row>
     <row r="27">
@@ -29372,49 +29372,49 @@
         <v>108.160635135932</v>
       </c>
       <c r="I27" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J27" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L27" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M27" t="n">
-        <v>122.5676255483074</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N27" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O27" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P27" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R27" t="n">
-        <v>79.89687860438912</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S27" t="n">
-        <v>164.5345187941275</v>
+        <v>208.9118472406825</v>
       </c>
       <c r="T27" t="n">
         <v>197.4218470422748</v>
       </c>
       <c r="U27" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="V27" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="W27" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -29454,49 +29454,49 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J28" t="n">
-        <v>74.71172711439593</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M28" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>158.0173053948015</v>
       </c>
       <c r="O28" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>110.1177504068044</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.02868467987659</v>
+        <v>130.9853613927381</v>
       </c>
       <c r="R28" t="n">
         <v>164.4066131828346</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8751278244474</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="T28" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="U28" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="V28" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="W28" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="X28" t="n">
-        <v>221.0151182874286</v>
+        <v>221.0151182874285</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -29536,31 +29536,31 @@
         <v>221.0151182874286</v>
       </c>
       <c r="K29" t="n">
+        <v>57.13282981099623</v>
+      </c>
+      <c r="L29" t="n">
         <v>221.0151182874286</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="N29" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>30.98488039654531</v>
+        <v>186.5667365643399</v>
       </c>
       <c r="P29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q29" t="n">
-        <v>168.643434336125</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R29" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7140436393247</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="T29" t="n">
         <v>221.0151182874286</v>
@@ -29609,34 +29609,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I30" t="n">
-        <v>88.82825281985649</v>
+        <v>78.29747578532815</v>
       </c>
       <c r="J30" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K30" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L30" t="n">
-        <v>83.340025953466</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N30" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O30" t="n">
-        <v>126.701080353806</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P30" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q30" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R30" t="n">
-        <v>127.2394152081628</v>
+        <v>171.6167436547177</v>
       </c>
       <c r="S30" t="n">
         <v>164.5345187941275</v>
@@ -29670,7 +29670,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>221.0151182874286</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29685,34 +29685,34 @@
         <v>167.689771139254</v>
       </c>
       <c r="H31" t="n">
-        <v>159.857510195687</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="I31" t="n">
         <v>147.7494808688102</v>
       </c>
       <c r="J31" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>102.5727324697714</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>106.8889569395467</v>
       </c>
       <c r="M31" t="n">
-        <v>116.6931885945944</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N31" t="n">
-        <v>93.91583427681485</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>106.7517885160091</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>221.0151182874286</v>
       </c>
       <c r="Q31" t="n">
-        <v>130.9853613927381</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R31" t="n">
         <v>164.4066131828346</v>
@@ -29770,7 +29770,7 @@
         <v>221.0151182874286</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0151182874286</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>221.0151182874286</v>
@@ -29779,10 +29779,10 @@
         <v>221.0151182874286</v>
       </c>
       <c r="M32" t="n">
-        <v>221.0151182874286</v>
+        <v>146.3687890634111</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>170.9459402718482</v>
       </c>
       <c r="O32" t="n">
         <v>221.0151182874286</v>
@@ -29791,13 +29791,13 @@
         <v>221.0151182874286</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.643434336125</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="R32" t="n">
-        <v>113.8687281338978</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="S32" t="n">
-        <v>221.0151182874286</v>
+        <v>195.7140436393247</v>
       </c>
       <c r="T32" t="n">
         <v>221.0151182874286</v>
@@ -29846,37 +29846,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I33" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J33" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K33" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L33" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M33" t="n">
-        <v>78.19029710175256</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O33" t="n">
-        <v>82.32375190725119</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q33" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R33" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S33" t="n">
-        <v>208.9118472406824</v>
+        <v>208.9118472406823</v>
       </c>
       <c r="T33" t="n">
         <v>197.4218470422748</v>
@@ -29907,7 +29907,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>214.5442947387152</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29928,7 +29928,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J34" t="n">
-        <v>74.71172711439593</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,19 +29937,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="N34" t="n">
-        <v>221.0151182874286</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.9853613927381</v>
+        <v>191.2393649367543</v>
       </c>
       <c r="R34" t="n">
         <v>164.4066131828346</v>
@@ -30013,10 +30013,10 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L35" t="n">
-        <v>163.2424406609279</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M35" t="n">
-        <v>243.1347164919704</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>243.1347164919704</v>
@@ -30031,13 +30031,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="R35" t="n">
-        <v>113.8687281338978</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S35" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="T35" t="n">
-        <v>243.1347164919704</v>
+        <v>221.0151182874286</v>
       </c>
       <c r="U35" t="n">
         <v>243.1347164919704</v>
@@ -30083,40 +30083,40 @@
         <v>108.160635135932</v>
       </c>
       <c r="I36" t="n">
-        <v>95.82205983753798</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J36" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K36" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L36" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M36" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N36" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O36" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P36" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R36" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S36" t="n">
         <v>164.5345187941275</v>
       </c>
       <c r="T36" t="n">
-        <v>197.4218470422748</v>
+        <v>204.4156540599563</v>
       </c>
       <c r="U36" t="n">
         <v>224.641496683099</v>
@@ -30156,37 +30156,37 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.689771139254</v>
+        <v>169.9130955786173</v>
       </c>
       <c r="H37" t="n">
         <v>159.857510195687</v>
       </c>
       <c r="I37" t="n">
-        <v>147.7494808688102</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K37" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>101.8051034503207</v>
       </c>
       <c r="M37" t="n">
-        <v>201.7388524323767</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>106.7517885160091</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.9853613927381</v>
+        <v>105.1144083851493</v>
       </c>
       <c r="R37" t="n">
         <v>164.4066131828346</v>
@@ -30250,22 +30250,22 @@
         <v>243.1347164919704</v>
       </c>
       <c r="L38" t="n">
-        <v>80.11031500700352</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="M38" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="N38" t="n">
-        <v>159.0942511025363</v>
+        <v>144.19328690304</v>
       </c>
       <c r="O38" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P38" t="n">
-        <v>243.1347164919704</v>
+        <v>191.6349384279589</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.1347164919704</v>
+        <v>154.2960642833052</v>
       </c>
       <c r="R38" t="n">
         <v>243.1347164919704</v>
@@ -30274,7 +30274,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="T38" t="n">
-        <v>221.0151182874286</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U38" t="n">
         <v>243.1347164919704</v>
@@ -30320,34 +30320,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I39" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K39" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L39" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M39" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N39" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O39" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P39" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q39" t="n">
-        <v>106.0581031398714</v>
+        <v>106.0581031398713</v>
       </c>
       <c r="R39" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S39" t="n">
         <v>171.528325811809</v>
@@ -30399,28 +30399,28 @@
         <v>159.857510195687</v>
       </c>
       <c r="I40" t="n">
-        <v>147.7494808688102</v>
+        <v>221.0984522638107</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K40" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L40" t="n">
-        <v>101.8051034503207</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>104.1302923698532</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>151.6087882467943</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>106.751788516009</v>
       </c>
       <c r="P40" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q40" t="n">
         <v>130.9853613927381</v>
@@ -30432,7 +30432,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="T40" t="n">
-        <v>243.1347164919704</v>
+        <v>227.4786990669493</v>
       </c>
       <c r="U40" t="n">
         <v>243.1347164919704</v>
@@ -30481,7 +30481,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="K41" t="n">
         <v>243.1347164919704</v>
@@ -30493,13 +30493,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N41" t="n">
-        <v>243.1347164919704</v>
+        <v>160.0613042068732</v>
       </c>
       <c r="O41" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P41" t="n">
-        <v>243.1347164919704</v>
+        <v>191.6349384279589</v>
       </c>
       <c r="Q41" t="n">
         <v>243.1347164919704</v>
@@ -30557,37 +30557,37 @@
         <v>108.160635135932</v>
       </c>
       <c r="I42" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K42" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L42" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M42" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N42" t="n">
-        <v>66.06942948955194</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O42" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P42" t="n">
-        <v>85.11220969290984</v>
+        <v>92.10601671059123</v>
       </c>
       <c r="Q42" t="n">
-        <v>106.0581031398714</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>127.2394152081628</v>
+        <v>79.89687860438909</v>
       </c>
       <c r="S42" t="n">
-        <v>171.528325811809</v>
+        <v>164.5345187941275</v>
       </c>
       <c r="T42" t="n">
         <v>197.4218470422748</v>
@@ -30639,7 +30639,7 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K43" t="n">
         <v>102.5727324697714</v>
@@ -30648,28 +30648,28 @@
         <v>101.8051034503207</v>
       </c>
       <c r="M43" t="n">
-        <v>4.896005317201676</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>93.91583427681479</v>
       </c>
       <c r="O43" t="n">
-        <v>106.7517885160091</v>
+        <v>109.9762278443756</v>
       </c>
       <c r="P43" t="n">
-        <v>110.1177504068044</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>228.5939214552616</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R43" t="n">
-        <v>164.4066131828346</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="S43" t="n">
         <v>218.8751278244474</v>
       </c>
       <c r="T43" t="n">
-        <v>227.4786990669493</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="U43" t="n">
         <v>243.1347164919704</v>
@@ -30721,7 +30721,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="K44" t="n">
-        <v>37.99023757431551</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="L44" t="n">
         <v>243.1347164919704</v>
@@ -30730,13 +30730,13 @@
         <v>243.1347164919704</v>
       </c>
       <c r="N44" t="n">
-        <v>243.1347164919704</v>
+        <v>103.0047476253641</v>
       </c>
       <c r="O44" t="n">
         <v>243.1347164919704</v>
       </c>
       <c r="P44" t="n">
-        <v>243.1347164919704</v>
+        <v>161.3945396537013</v>
       </c>
       <c r="Q44" t="n">
         <v>243.1347164919704</v>
@@ -30745,7 +30745,7 @@
         <v>243.1347164919704</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7140436393247</v>
+        <v>243.1347164919704</v>
       </c>
       <c r="T44" t="n">
         <v>243.1347164919704</v>
@@ -30794,34 +30794,34 @@
         <v>108.160635135932</v>
       </c>
       <c r="I45" t="n">
-        <v>88.82825281985649</v>
+        <v>88.82825281985647</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1486090703222</v>
+        <v>101.1486090703221</v>
       </c>
       <c r="K45" t="n">
-        <v>95.90842290065692</v>
+        <v>95.90842290065683</v>
       </c>
       <c r="L45" t="n">
-        <v>83.340025953466</v>
+        <v>83.34002595346588</v>
       </c>
       <c r="M45" t="n">
-        <v>78.19029710175256</v>
+        <v>78.19029710175244</v>
       </c>
       <c r="N45" t="n">
-        <v>73.06323650723343</v>
+        <v>66.06942948955179</v>
       </c>
       <c r="O45" t="n">
-        <v>82.32375190725119</v>
+        <v>82.32375190725108</v>
       </c>
       <c r="P45" t="n">
-        <v>85.11220969290984</v>
+        <v>85.11220969290974</v>
       </c>
       <c r="Q45" t="n">
-        <v>106.0581031398714</v>
+        <v>113.0519101575528</v>
       </c>
       <c r="R45" t="n">
-        <v>127.2394152081628</v>
+        <v>127.2394152081627</v>
       </c>
       <c r="S45" t="n">
         <v>164.5345187941275</v>
@@ -30876,28 +30876,28 @@
         <v>147.7494808688102</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6934180900282</v>
+        <v>109.6934180900281</v>
       </c>
       <c r="K46" t="n">
         <v>102.5727324697714</v>
       </c>
       <c r="L46" t="n">
-        <v>199.4136635128443</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>104.1302923698532</v>
+        <v>104.1302923698531</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>106.7517885160091</v>
+        <v>204.3603485785325</v>
       </c>
       <c r="P46" t="n">
-        <v>110.1177504068044</v>
+        <v>110.1177504068043</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.02868467987659</v>
+        <v>63.02868467987656</v>
       </c>
       <c r="R46" t="n">
         <v>164.4066131828346</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H11" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I11" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J11" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K11" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L11" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M11" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N11" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O11" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P11" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q11" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R11" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S11" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T11" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H12" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I12" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J12" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K12" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L12" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M12" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N12" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O12" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P12" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R12" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S12" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H13" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I13" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J13" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K13" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L13" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M13" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N13" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O13" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P13" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R13" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S13" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T13" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H14" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I14" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J14" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K14" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L14" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M14" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N14" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O14" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P14" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R14" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S14" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T14" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H15" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I15" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J15" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K15" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L15" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M15" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N15" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O15" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P15" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q15" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R15" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S15" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H16" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I16" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J16" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L16" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M16" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N16" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O16" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P16" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R16" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S16" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T16" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H17" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I17" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J17" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K17" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L17" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M17" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N17" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O17" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P17" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R17" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S17" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T17" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H18" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I18" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J18" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K18" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L18" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M18" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N18" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O18" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P18" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R18" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S18" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H19" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I19" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J19" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K19" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L19" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M19" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N19" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O19" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P19" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R19" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S19" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T19" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H20" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I20" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J20" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K20" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L20" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M20" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N20" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O20" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P20" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R20" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S20" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T20" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H21" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I21" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J21" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K21" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L21" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M21" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N21" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O21" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P21" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R21" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S21" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H22" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I22" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J22" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K22" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L22" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M22" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N22" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O22" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P22" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R22" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S22" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T22" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H23" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I23" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J23" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K23" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L23" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M23" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N23" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O23" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P23" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R23" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S23" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T23" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I24" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J24" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K24" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M24" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N24" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O24" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P24" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R24" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S24" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H25" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I25" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J25" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K25" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L25" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M25" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N25" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O25" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P25" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R25" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S25" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T25" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H26" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I26" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J26" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K26" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L26" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M26" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N26" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O26" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P26" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R26" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S26" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T26" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H27" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I27" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J27" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K27" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M27" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N27" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O27" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P27" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R27" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S27" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H28" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I28" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J28" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K28" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L28" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M28" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N28" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O28" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P28" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R28" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S28" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T28" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H29" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I29" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J29" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K29" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L29" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M29" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N29" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O29" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P29" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R29" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S29" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T29" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H30" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I30" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J30" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K30" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L30" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M30" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N30" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O30" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P30" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R30" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S30" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H31" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I31" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J31" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K31" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L31" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M31" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N31" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O31" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P31" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R31" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S31" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T31" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H32" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I32" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J32" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K32" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L32" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M32" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N32" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O32" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P32" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R32" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S32" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T32" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H33" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I33" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J33" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K33" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M33" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N33" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O33" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P33" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R33" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S33" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H34" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I34" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J34" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K34" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L34" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M34" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N34" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O34" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P34" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R34" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S34" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T34" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H35" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I35" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J35" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K35" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L35" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M35" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N35" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O35" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P35" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R35" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S35" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T35" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H36" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I36" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J36" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K36" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L36" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M36" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N36" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O36" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P36" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R36" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S36" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H37" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I37" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J37" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K37" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L37" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M37" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N37" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O37" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P37" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R37" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S37" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T37" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H38" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I38" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J38" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K38" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L38" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M38" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N38" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O38" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P38" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R38" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S38" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T38" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H39" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I39" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J39" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K39" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L39" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M39" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N39" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O39" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P39" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R39" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S39" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H40" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I40" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J40" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K40" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L40" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M40" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N40" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O40" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P40" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R40" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S40" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T40" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H41" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I41" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J41" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K41" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L41" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M41" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N41" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O41" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P41" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R41" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S41" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T41" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H42" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I42" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J42" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K42" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L42" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M42" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N42" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O42" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P42" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R42" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S42" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H43" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I43" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J43" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K43" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L43" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M43" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N43" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O43" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P43" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R43" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S43" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T43" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4454594880620737</v>
+        <v>0.4454594880620747</v>
       </c>
       <c r="H44" t="n">
-        <v>4.562061982115714</v>
+        <v>4.562061982115724</v>
       </c>
       <c r="I44" t="n">
-        <v>17.17357691351312</v>
+        <v>17.17357691351315</v>
       </c>
       <c r="J44" t="n">
-        <v>37.80781722490847</v>
+        <v>37.80781722490855</v>
       </c>
       <c r="K44" t="n">
-        <v>56.66411735457606</v>
+        <v>56.66411735457618</v>
       </c>
       <c r="L44" t="n">
-        <v>70.29684816235576</v>
+        <v>70.29684816235591</v>
       </c>
       <c r="M44" t="n">
-        <v>78.21878833317966</v>
+        <v>78.21878833317983</v>
       </c>
       <c r="N44" t="n">
-        <v>79.48445010363604</v>
+        <v>79.48445010363621</v>
       </c>
       <c r="O44" t="n">
-        <v>75.05491231921879</v>
+        <v>75.05491231921896</v>
       </c>
       <c r="P44" t="n">
-        <v>64.05763120768633</v>
+        <v>64.05763120768647</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.1046132914633</v>
+        <v>48.10461329146341</v>
       </c>
       <c r="R44" t="n">
-        <v>27.98209456697926</v>
+        <v>27.98209456697933</v>
       </c>
       <c r="S44" t="n">
-        <v>10.15090808421452</v>
+        <v>10.15090808421454</v>
       </c>
       <c r="T44" t="n">
-        <v>1.949998908991729</v>
+        <v>1.949998908991733</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0356367590449659</v>
+        <v>0.03563675904496597</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2383418383532126</v>
+        <v>0.2383418383532131</v>
       </c>
       <c r="H45" t="n">
-        <v>2.301880386200764</v>
+        <v>2.301880386200769</v>
       </c>
       <c r="I45" t="n">
-        <v>8.206067680143503</v>
+        <v>8.206067680143523</v>
       </c>
       <c r="J45" t="n">
-        <v>22.51807692967786</v>
+        <v>22.51807692967791</v>
       </c>
       <c r="K45" t="n">
-        <v>38.48698009934311</v>
+        <v>38.48698009934319</v>
       </c>
       <c r="L45" t="n">
-        <v>51.75049433191136</v>
+        <v>51.75049433191147</v>
       </c>
       <c r="M45" t="n">
-        <v>60.3903859722153</v>
+        <v>60.39038597221543</v>
       </c>
       <c r="N45" t="n">
-        <v>61.98873979169804</v>
+        <v>61.98873979169817</v>
       </c>
       <c r="O45" t="n">
-        <v>56.70758642608212</v>
+        <v>56.70758642608224</v>
       </c>
       <c r="P45" t="n">
-        <v>45.51283753606215</v>
+        <v>45.51283753606225</v>
       </c>
       <c r="Q45" t="n">
-        <v>30.42412659399956</v>
+        <v>30.42412659399962</v>
       </c>
       <c r="R45" t="n">
-        <v>14.7981011567021</v>
+        <v>14.79810115670213</v>
       </c>
       <c r="S45" t="n">
-        <v>4.427095111516906</v>
+        <v>4.427095111516915</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9606848659938696</v>
+        <v>0.9606848659938717</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01568038410218504</v>
+        <v>0.01568038410218508</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1998177908540738</v>
+        <v>0.1998177908540742</v>
       </c>
       <c r="H46" t="n">
-        <v>1.776561813229857</v>
+        <v>1.776561813229861</v>
       </c>
       <c r="I46" t="n">
-        <v>6.00906592859342</v>
+        <v>6.009065928593434</v>
       </c>
       <c r="J46" t="n">
-        <v>14.12711781338302</v>
+        <v>14.12711781338305</v>
       </c>
       <c r="K46" t="n">
-        <v>23.21519424650057</v>
+        <v>23.21519424650062</v>
       </c>
       <c r="L46" t="n">
-        <v>29.70745592388657</v>
+        <v>29.70745592388664</v>
       </c>
       <c r="M46" t="n">
-        <v>31.32234697906176</v>
+        <v>31.32234697906183</v>
       </c>
       <c r="N46" t="n">
-        <v>30.57757157678751</v>
+        <v>30.57757157678758</v>
       </c>
       <c r="O46" t="n">
-        <v>28.24333647453764</v>
+        <v>28.2433364745377</v>
       </c>
       <c r="P46" t="n">
-        <v>24.16705354111452</v>
+        <v>24.16705354111457</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.73201519597158</v>
+        <v>16.73201519597162</v>
       </c>
       <c r="R46" t="n">
-        <v>8.984534486947716</v>
+        <v>8.984534486947735</v>
       </c>
       <c r="S46" t="n">
-        <v>3.482279136975085</v>
+        <v>3.482279136975092</v>
       </c>
       <c r="T46" t="n">
-        <v>0.853766924558315</v>
+        <v>0.8537669245583169</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01089915222840404</v>
+        <v>0.01089915222840406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,10 +35404,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39929300540028</v>
+        <v>29.39729062832002</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>68.39702598806991</v>
-      </c>
-      <c r="N11" t="n">
-        <v>17.58843398710347</v>
       </c>
       <c r="O11" t="n">
         <v>68.39702598806991</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.80658962388623</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>36.23621915821163</v>
+        <v>36.23621915821172</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>52.22885684391446</v>
       </c>
       <c r="N12" t="n">
-        <v>52.22885684391455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35550,10 +35550,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>54.16910705312892</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>25.1084714485048</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="L13" t="n">
-        <v>67.16858615289586</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>30.28907543979836</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,13 +35641,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39929300540017</v>
+        <v>30.39929300540032</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K14" t="n">
-        <v>60.52653654573108</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35662,16 +35662,16 @@
         <v>68.39702598806991</v>
       </c>
       <c r="P14" t="n">
-        <v>2.722943108756341</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.80658962388612</v>
+        <v>44.65904329030317</v>
       </c>
       <c r="R14" t="n">
-        <v>36.23621915821152</v>
+        <v>36.2362191582117</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73598032068634</v>
+        <v>22.73598032068648</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>52.22885684391455</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.22885684391491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>54.16910705312909</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>54.16910705312989</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>68.39702598806991</v>
@@ -35875,43 +35875,43 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>16.94827559451692</v>
+        <v>16.94827559451693</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>48.68523419201481</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>48.68523419201481</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>68.39702598806993</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>68.39702598806993</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36112,22 +36112,22 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>16.94827559451692</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>48.68523419201482</v>
+        <v>43.63661430849646</v>
       </c>
       <c r="J20" t="n">
         <v>68.39702598806991</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>68.39702598806991</v>
       </c>
       <c r="M20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>68.39702598806991</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>43.63661430849648</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,37 +36361,37 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>68.39702598806993</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>68.39702598806993</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>68.39702598806993</v>
       </c>
       <c r="T23" t="n">
-        <v>68.39702598806993</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>65.63350978653175</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21.99689547803524</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>14.71900818417696</v>
       </c>
       <c r="J26" t="n">
-        <v>40.89629673952646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>400.20285994716</v>
+        <v>338.9230938761468</v>
       </c>
       <c r="L26" t="n">
         <v>433.3080812606695</v>
@@ -36604,22 +36604,22 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>76.82183138438849</v>
+        <v>310.6475144854235</v>
       </c>
       <c r="O26" t="n">
-        <v>71.72427447050283</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="P26" t="n">
-        <v>394.2912351320691</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>273.1792742376045</v>
+        <v>52.37168395130371</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>107.1463901535308</v>
       </c>
       <c r="S26" t="n">
-        <v>25.30107464810389</v>
+        <v>25.30107464810385</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>44.377328446555</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>116.8848259175755</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>60.25400354401631</v>
+        <v>64.10147111798669</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.8973678806242</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.139990462981115</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.96438733281771</v>
+        <v>32.96438733281772</v>
       </c>
       <c r="J29" t="n">
-        <v>82.30317859881794</v>
+        <v>82.30317859881799</v>
       </c>
       <c r="K29" t="n">
-        <v>400.20285994716</v>
+        <v>207.1541698400367</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>61.43971185404693</v>
       </c>
       <c r="M29" t="n">
-        <v>265.5087953949595</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>433.3080812606695</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>394.2912351320691</v>
+        <v>59.62057863372725</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>273.1792742376046</v>
       </c>
       <c r="R29" t="n">
         <v>107.1463901535308</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>25.30107464810388</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>44.37732844655483</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>44.37732844655492</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>53.67856535622627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>61.15760809174161</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>5.083853489226041</v>
       </c>
       <c r="M31" t="n">
-        <v>12.56289622474126</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.96438733281768</v>
+        <v>32.96438733281774</v>
       </c>
       <c r="J32" t="n">
-        <v>258.1636583777747</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>63.0916308731486</v>
+        <v>63.09163087314875</v>
       </c>
       <c r="L32" t="n">
         <v>433.3080812606695</v>
       </c>
       <c r="M32" t="n">
-        <v>74.64632922401732</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.6504497107545895</v>
+        <v>433.3080812606695</v>
       </c>
       <c r="O32" t="n">
-        <v>433.3080812606695</v>
+        <v>71.724274470503</v>
       </c>
       <c r="P32" t="n">
-        <v>394.291235132069</v>
+        <v>369.3478848989826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>273.1792742376047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>38.80131348562912</v>
       </c>
       <c r="S32" t="n">
-        <v>25.30107464810386</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37172,7 +37172,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.37732844655492</v>
+        <v>44.37732844655483</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20774180751283</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>116.8848259175755</v>
       </c>
       <c r="N34" t="n">
-        <v>129.9310876540791</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>60.25400354401622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J35" t="n">
-        <v>104.4227768033597</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K35" t="n">
-        <v>85.21122907769043</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="L35" t="n">
+        <v>83.55931005858876</v>
+      </c>
+      <c r="M35" t="n">
+        <v>28.04891149423666</v>
+      </c>
+      <c r="N35" t="n">
+        <v>98.94142958893046</v>
+      </c>
+      <c r="O35" t="n">
+        <v>93.84387267504481</v>
+      </c>
+      <c r="P35" t="n">
         <v>364.9110552725995</v>
       </c>
-      <c r="M35" t="n">
-        <v>364.9110552725995</v>
-      </c>
-      <c r="N35" t="n">
-        <v>98.94142958893029</v>
-      </c>
-      <c r="O35" t="n">
-        <v>93.84387267504464</v>
-      </c>
-      <c r="P35" t="n">
-        <v>81.74017683826894</v>
-      </c>
       <c r="Q35" t="n">
-        <v>126.2944879462428</v>
+        <v>74.49128215584557</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T35" t="n">
-        <v>22.11959820454179</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37379,40 +37379,40 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>6.993807017681491</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.223324439363293</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>95.38523562316021</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J38" t="n">
-        <v>280.2832565823165</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K38" t="n">
-        <v>85.21122907769043</v>
+        <v>85.21122907769055</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>83.55931005858876</v>
       </c>
       <c r="M38" t="n">
-        <v>96.76592742855915</v>
+        <v>252.6016309958987</v>
       </c>
       <c r="N38" t="n">
-        <v>14.90096419949618</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>364.9110552725995</v>
+        <v>93.84387267504481</v>
       </c>
       <c r="P38" t="n">
         <v>364.9110552725995</v>
       </c>
       <c r="Q38" t="n">
-        <v>74.49128215584545</v>
+        <v>206.4602202334812</v>
       </c>
       <c r="R38" t="n">
-        <v>60.92091169017086</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>22.11959820454179</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>73.34897139500053</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>57.69295396997949</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37728,7 +37728,7 @@
         <v>24.25958866752297</v>
       </c>
       <c r="T40" t="n">
-        <v>15.65601742502106</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>104.4227768033598</v>
       </c>
       <c r="K41" t="n">
+        <v>85.21122907769055</v>
+      </c>
+      <c r="L41" t="n">
+        <v>152.7738284700774</v>
+      </c>
+      <c r="M41" t="n">
+        <v>96.76592742855932</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15.8680173038333</v>
+      </c>
+      <c r="O41" t="n">
         <v>364.9110552725995</v>
       </c>
-      <c r="L41" t="n">
-        <v>83.55931005858861</v>
-      </c>
-      <c r="M41" t="n">
-        <v>127.5533428437167</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>364.9110552725995</v>
       </c>
-      <c r="O41" t="n">
-        <v>93.84387267504464</v>
-      </c>
-      <c r="P41" t="n">
-        <v>81.74017683826894</v>
-      </c>
       <c r="Q41" t="n">
-        <v>74.49128215584545</v>
+        <v>74.49128215584557</v>
       </c>
       <c r="R41" t="n">
-        <v>129.2659883580726</v>
+        <v>60.92091169017093</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42067285264569</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T41" t="n">
         <v>22.11959820454179</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>6.993807017681491</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>6.993807017681491</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -37950,22 +37950,22 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>3.224439328366586</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.60856006252351</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>78.72810330913585</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>15.65601742502106</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>55.08398553735951</v>
+        <v>55.08398553735955</v>
       </c>
       <c r="J44" t="n">
-        <v>230.1124749942936</v>
+        <v>206.3714649284707</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>364.9110552725995</v>
       </c>
       <c r="L44" t="n">
+        <v>83.55931005858876</v>
+      </c>
+      <c r="M44" t="n">
+        <v>96.76592742855932</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
         <v>364.9110552725995</v>
       </c>
-      <c r="M44" t="n">
-        <v>96.76592742855915</v>
-      </c>
-      <c r="N44" t="n">
-        <v>364.9110552725995</v>
-      </c>
-      <c r="O44" t="n">
-        <v>93.84387267504464</v>
-      </c>
       <c r="P44" t="n">
-        <v>81.74017683826894</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.49128215584545</v>
+        <v>74.49128215584557</v>
       </c>
       <c r="R44" t="n">
-        <v>60.92091169017086</v>
+        <v>129.2659883580727</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.42067285264571</v>
       </c>
       <c r="T44" t="n">
         <v>22.11959820454179</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>6.993807017681491</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>97.60856006252351</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
